--- a/public/Sample_assessments_Order_sequencing.xlsx
+++ b/public/Sample_assessments_Order_sequencing.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="6195"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="6192"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
   <si>
     <t>Arrange the words given below in a meaningful sequence</t>
   </si>
@@ -118,12 +124,15 @@
   </si>
   <si>
     <t>option_4</t>
+  </si>
+  <si>
+    <t>question_type_seven</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -233,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -268,7 +277,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -445,7 +454,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -453,26 +462,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="1" max="1" width="8.44140625" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="10" width="9.6640625" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -509,8 +519,11 @@
       <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="M1" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -547,11 +560,14 @@
       <c r="L2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="M2" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -588,8 +604,11 @@
       <c r="L4" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="M4" s="3">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -625,6 +644,9 @@
       </c>
       <c r="L5" s="4" t="s">
         <v>2</v>
+      </c>
+      <c r="M5" s="3">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/public/Sample_assessments_Order_sequencing.xlsx
+++ b/public/Sample_assessments_Order_sequencing.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\slicecarving\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="6192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="6195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>Arrange the words given below in a meaningful sequence</t>
   </si>
@@ -124,15 +118,12 @@
   </si>
   <si>
     <t>option_4</t>
-  </si>
-  <si>
-    <t>question_type_seven</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -242,7 +233,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -277,7 +268,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -454,7 +445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -462,27 +453,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.44140625" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
     <col min="2" max="2" width="80" customWidth="1"/>
-    <col min="3" max="3" width="11.109375" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="10" width="9.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" customWidth="1"/>
-    <col min="13" max="13" width="21" style="3" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="7" max="10" width="9.7109375" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -519,11 +509,8 @@
       <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>33</v>
-      </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -560,14 +547,11 @@
       <c r="L2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="M2" s="3">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:13" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="14.45" hidden="1" x14ac:dyDescent="0.3">
       <c r="L3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -604,11 +588,8 @@
       <c r="L4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="M4" s="3">
-        <v>7</v>
-      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -644,9 +625,6 @@
       </c>
       <c r="L5" s="4" t="s">
         <v>2</v>
-      </c>
-      <c r="M5" s="3">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
